--- a/2.3-SE-4348.502-OS/Project4a/Burndown Chart.xlsx
+++ b/2.3-SE-4348.502-OS/Project4a/Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\Project4a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AAB1A3-548B-4221-B9FC-CD28AF08DF88}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9721DBC1-2205-4081-9F5D-D94333DC4EB2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -696,34 +696,34 @@
                   <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>-0.89999999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2340,14 +2340,15 @@
         <v>0.1</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="10">
         <v>0</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2963,7 +2964,7 @@
       </c>
       <c r="I37" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="23">
         <f t="shared" si="4"/>
@@ -3036,43 +3037,43 @@
       </c>
       <c r="I38" s="23">
         <f t="shared" ref="I38:R38" si="5">H38-SUM(I7:I31)</f>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="J38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="K38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="L38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="M38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="O38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="P38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="Q38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="R38" s="23">
         <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>

--- a/2.3-SE-4348.502-OS/Project4a/Burndown Chart.xlsx
+++ b/2.3-SE-4348.502-OS/Project4a/Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\Project4a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9721DBC1-2205-4081-9F5D-D94333DC4EB2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94702902-B416-42FB-938F-9EB8489E4E31}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,7 +619,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -708,22 +708,22 @@
                   <c:v>-0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>-1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F15" si="2">SUM(H7:R7)</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
@@ -2265,7 +2265,9 @@
       <c r="J7" s="2"/>
       <c r="K7" s="11"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <v>0.1</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2284,7 +2286,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -2294,7 +2296,9 @@
       <c r="J8" s="2"/>
       <c r="K8" s="11"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <v>0.1</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -2343,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="2">
@@ -2371,7 +2375,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
@@ -2381,7 +2385,9 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <v>0.1</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -2917,7 +2923,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1">
         <f>G35-SUM(G9:G25)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
@@ -2980,7 +2986,7 @@
       </c>
       <c r="M37" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="4"/>
@@ -3053,27 +3059,27 @@
       </c>
       <c r="M38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>-1.2</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>-1.2</v>
       </c>
       <c r="O38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>-1.2</v>
       </c>
       <c r="P38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>-1.2</v>
       </c>
       <c r="Q38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>-1.2</v>
       </c>
       <c r="R38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>-1.2</v>
       </c>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>

--- a/2.3-SE-4348.502-OS/Project4a/Burndown Chart.xlsx
+++ b/2.3-SE-4348.502-OS/Project4a/Burndown Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\2.3-SE-4348.502-OS\Project4a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\2.3-SE-4348.502-OS\Project4a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94702902-B416-42FB-938F-9EB8489E4E31}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EFF4F2-D309-48C8-B93C-393596A6C6DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -693,37 +693,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.89999999999999991</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2</c:v>
+                  <c:v>0.90000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.2</c:v>
+                  <c:v>0.90000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2</c:v>
+                  <c:v>0.90000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.2</c:v>
+                  <c:v>-1.0999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2</c:v>
+                  <c:v>-1.0999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2</c:v>
+                  <c:v>-1.0999999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,37 +768,37 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.4545454545454546</c:v>
+                  <c:v>3.3636363636363638</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3090909090909091</c:v>
+                  <c:v>3.0272727272727273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1636363636363636</c:v>
+                  <c:v>2.6909090909090909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0181818181818181</c:v>
+                  <c:v>2.3545454545454545</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87272727272727257</c:v>
+                  <c:v>2.0181818181818181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72727272727272707</c:v>
+                  <c:v>1.6818181818181817</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58181818181818157</c:v>
+                  <c:v>1.3454545454545452</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43636363636363606</c:v>
+                  <c:v>1.0090909090909088</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29090909090909056</c:v>
+                  <c:v>0.6727272727272724</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14545454545454509</c:v>
+                  <c:v>0.33636363636363603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.8857805861880479E-16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2372,13 +2372,15 @@
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>0.1</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
       <c r="G11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="2"/>
@@ -2401,13 +2403,15 @@
       <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
       <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="2"/>
@@ -2417,7 +2421,9 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2">
+        <v>2</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="5"/>
     </row>
@@ -2428,7 +2434,9 @@
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2454,7 +2462,9 @@
       <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2483,7 +2493,9 @@
       <c r="D15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2923,7 +2935,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1">
         <f>G35-SUM(G9:G25)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
@@ -2998,7 +3010,7 @@
       </c>
       <c r="P37" s="23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="23">
         <f t="shared" si="4"/>
@@ -3035,51 +3047,51 @@
       </c>
       <c r="E38" s="9">
         <f>SUM(E7:E31)</f>
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H38" s="23">
         <f>E38-SUM(H7:H31)</f>
-        <v>1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="I38" s="23">
         <f t="shared" ref="I38:R38" si="5">H38-SUM(I7:I31)</f>
-        <v>-0.89999999999999991</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="K38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="L38" s="23">
         <f t="shared" si="5"/>
-        <v>-0.89999999999999991</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="M38" s="23">
         <f t="shared" si="5"/>
-        <v>-1.2</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="5"/>
-        <v>-1.2</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="O38" s="23">
         <f t="shared" si="5"/>
-        <v>-1.2</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="P38" s="23">
         <f t="shared" si="5"/>
-        <v>-1.2</v>
+        <v>-1.0999999999999999</v>
       </c>
       <c r="Q38" s="23">
         <f t="shared" si="5"/>
-        <v>-1.2</v>
+        <v>-1.0999999999999999</v>
       </c>
       <c r="R38" s="23">
         <f t="shared" si="5"/>
-        <v>-1.2</v>
+        <v>-1.0999999999999999</v>
       </c>
       <c r="S38" s="23"/>
       <c r="T38" s="23"/>
@@ -3108,51 +3120,51 @@
       </c>
       <c r="E39" s="9">
         <f>SUM(E7:E31)</f>
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H39" s="23">
         <f>E39-($E$39/$G$34)</f>
-        <v>1.4545454545454546</v>
+        <v>3.3636363636363638</v>
       </c>
       <c r="I39" s="23">
         <f>H39-($E$39/$G$34)</f>
-        <v>1.3090909090909091</v>
+        <v>3.0272727272727273</v>
       </c>
       <c r="J39" s="23">
         <f t="shared" ref="J39:R39" si="6">I39-($E$39/$G$34)</f>
-        <v>1.1636363636363636</v>
+        <v>2.6909090909090909</v>
       </c>
       <c r="K39" s="23">
         <f t="shared" si="6"/>
-        <v>1.0181818181818181</v>
+        <v>2.3545454545454545</v>
       </c>
       <c r="L39" s="23">
         <f t="shared" si="6"/>
-        <v>0.87272727272727257</v>
+        <v>2.0181818181818181</v>
       </c>
       <c r="M39" s="23">
         <f t="shared" si="6"/>
-        <v>0.72727272727272707</v>
+        <v>1.6818181818181817</v>
       </c>
       <c r="N39" s="23">
         <f t="shared" si="6"/>
-        <v>0.58181818181818157</v>
+        <v>1.3454545454545452</v>
       </c>
       <c r="O39" s="23">
         <f t="shared" si="6"/>
-        <v>0.43636363636363606</v>
+        <v>1.0090909090909088</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" si="6"/>
-        <v>0.29090909090909056</v>
+        <v>0.6727272727272724</v>
       </c>
       <c r="Q39" s="23">
         <f t="shared" si="6"/>
-        <v>0.14545454545454509</v>
+        <v>0.33636363636363603</v>
       </c>
       <c r="R39" s="23">
         <f t="shared" si="6"/>
-        <v>-3.8857805861880479E-16</v>
+        <v>0</v>
       </c>
       <c r="S39" s="23"/>
       <c r="T39" s="23"/>
